--- a/biology/Zoologie/Brigittea_latens/Brigittea_latens.xlsx
+++ b/biology/Zoologie/Brigittea_latens/Brigittea_latens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictyne cachée
-Brigittea latens, la Dictyne cachée[1], est une espèce d'araignées aranéomorphes de la famille des Dictynidae[2].
+Brigittea latens, la Dictyne cachée, est une espèce d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Turquie, en Asie centrale et en Chine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe, en Turquie, en Asie centrale et en Chine.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,7 à 2,5 mm et les femelles de 2,5 à 3,5 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,7 à 2,5 mm et les femelles de 2,5 à 3,5 mm.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea latens par Fabricius en 1775. Elle est placée dans le genre Dictyna par C. L. Koch en 1836[4] puis dans le genre Brigittea par Lehtinen en 1967[5].
-Dictyna globiceps[6], Dictyna puta[7] et Dictyna lugubris[8] ont été placées en synonymie par Simon en 1914[9].
-Dictyna mandibulosa[10] et Dictyna puta[7] ont été placées en synonymie par Lehtinen en 1967[5].
-Dictyna latens mutabilis[11] a été placée en synonymie par Marusik, Esyunin et Tuneva en 2015[12].
-Dictyna varians[13] a été placée en synonymie par Esyunin, Ponomarev et Kabdrakhimov en 2024[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea latens par Fabricius en 1775. Elle est placée dans le genre Dictyna par C. L. Koch en 1836 puis dans le genre Brigittea par Lehtinen en 1967.
+Dictyna globiceps, Dictyna puta et Dictyna lugubris ont été placées en synonymie par Simon en 1914.
+Dictyna mandibulosa et Dictyna puta ont été placées en synonymie par Lehtinen en 1967.
+Dictyna latens mutabilis a été placée en synonymie par Marusik, Esyunin et Tuneva en 2015.
+Dictyna varians a été placée en synonymie par Esyunin, Ponomarev et Kabdrakhimov en 2024.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fabricius, 1775 : « Araneae. » Systema entomologiae, sistens insectorum classes, ordines, genera, species, adiectis, synonymis, locis descriptionibus observationibus, Libraria Kortii, Flensbvrgi et Lipsiae, p. 431-441 (la).</t>
         </is>
